--- a/cf-ml/data_skripsi.xlsx
+++ b/cf-ml/data_skripsi.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POLINEMA\SMT 9\magang skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1D1BE-A588-47D8-A583-2FFB68C07077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gejala kerusakan" sheetId="2" r:id="rId2"/>
+    <sheet name="Jenis Kerusakan" sheetId="3" r:id="rId3"/>
+    <sheet name="Rekomendasi Perbaikan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="748">
   <si>
     <t>no</t>
   </si>
@@ -851,6 +853,42 @@
     <t>PR138</t>
   </si>
   <si>
+    <t>PR139</t>
+  </si>
+  <si>
+    <t>PR140</t>
+  </si>
+  <si>
+    <t>PR141</t>
+  </si>
+  <si>
+    <t>PR142</t>
+  </si>
+  <si>
+    <t>PR143</t>
+  </si>
+  <si>
+    <t>PR144</t>
+  </si>
+  <si>
+    <t>PR145</t>
+  </si>
+  <si>
+    <t>PR146</t>
+  </si>
+  <si>
+    <t>PR147</t>
+  </si>
+  <si>
+    <t>PR148</t>
+  </si>
+  <si>
+    <t>PR149</t>
+  </si>
+  <si>
+    <t>PR150</t>
+  </si>
+  <si>
     <t>Jok sepedah motor supra 125</t>
   </si>
   <si>
@@ -1499,6 +1537,15 @@
     <t>4 hari</t>
   </si>
   <si>
+    <t>PR151</t>
+  </si>
+  <si>
+    <t>PR152</t>
+  </si>
+  <si>
+    <t>PR153</t>
+  </si>
+  <si>
     <t>amblas dan goyang ketika diduduki</t>
   </si>
   <si>
@@ -1971,18 +2018,291 @@
   </si>
   <si>
     <t>sehari</t>
+  </si>
+  <si>
+    <t>Kode Gejala</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>Kerusakan pada permukaan jok tanpa mempengaruhi struktur</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>Dudukan terasa tidak empuk, miring, atau tidak stabil</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>Dudukan turun drastis saat diduduki</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>Kerusakan tampil luar, tidak mempengaruhi fungsi</t>
+  </si>
+  <si>
+    <t>Kurang nyaman diduduki</t>
+  </si>
+  <si>
+    <t>Kerusakan ringan</t>
+  </si>
+  <si>
+    <t>Kode Kerusakan</t>
+  </si>
+  <si>
+    <t>Jenis Kerusakan</t>
+  </si>
+  <si>
+    <t>Gejala Terkait</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>K07</t>
+  </si>
+  <si>
+    <t>K08</t>
+  </si>
+  <si>
+    <t>K09</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>Sarung jok robek</t>
+  </si>
+  <si>
+    <t>Spon berlubang</t>
+  </si>
+  <si>
+    <t>Busa Kempes</t>
+  </si>
+  <si>
+    <t>G02,G03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karet Kendor </t>
+  </si>
+  <si>
+    <t>Karet / pir putus</t>
+  </si>
+  <si>
+    <t>Kerangka kayu lapuk</t>
+  </si>
+  <si>
+    <t>Ringan</t>
+  </si>
+  <si>
+    <t>Kerangka kayu patah</t>
+  </si>
+  <si>
+    <t>Jahitan lepas</t>
+  </si>
+  <si>
+    <t>Warna kain memudar</t>
+  </si>
+  <si>
+    <t>Kode Rekomendasi</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>R09</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Spons berlubang</t>
+  </si>
+  <si>
+    <t>Spons kempes</t>
+  </si>
+  <si>
+    <t>Karet kendor</t>
+  </si>
+  <si>
+    <t>kerangka kayu lapuk</t>
+  </si>
+  <si>
+    <t>Menambal / ganti spons dudukan</t>
+  </si>
+  <si>
+    <t>Menambah / ganti spons</t>
+  </si>
+  <si>
+    <t>Mengencangkan atau ganti karet</t>
+  </si>
+  <si>
+    <t>Mengganti pir / sistem perdudukan</t>
+  </si>
+  <si>
+    <t>Penggantian sebagian rangka kayu</t>
+  </si>
+  <si>
+    <t>Penggantian rangka dudukan</t>
+  </si>
+  <si>
+    <t>Menjahit ulang jahitan</t>
+  </si>
+  <si>
+    <t>Penggantian kain jok</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>Perubahan warna kain jok pudar tanpa mempengaruhi fungsi dudukan tapi mempengaruhi estetika</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>Kain sofa mengalami perubahan bentuk seperti memar atau pipih, serta terdapat robekan pada permukaan kain yang disebabkan oleh tekanan, gesekan, atau pemakaian dalam jangka waktu tertentu, sehingga mengurangi estetika dan kenyamanan penggunaan.</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>Kain kursi/ sofa / springbed / matras robek</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Warna kain memudar, aus</t>
+  </si>
+  <si>
+    <t>Kain retak dan pecah-pecah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kain kursi, sofa, springbed, matras memar atau pipih   </t>
+  </si>
+  <si>
+    <t>Kain retak dan pecah-pecah karena disebabkan pemakaian dalam jangka waktu lama, Beban berlebih, paparan sinar matahari, gesekan terus-menerus, kualitas bahan rendah</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G01,G07</t>
+  </si>
+  <si>
+    <t>G01, G06,G07</t>
+  </si>
+  <si>
+    <t>G01, G05</t>
+  </si>
+  <si>
+    <t>G02, G03</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>Kerangka reyot</t>
+  </si>
+  <si>
+    <t>Kerangka sofa terasa tidak kokoh, bergoyang, atau berbunyi saat digunakan, yang menunjukkan adanya penurunan kekuatan struktur rangka dan berpotensi mengganggu kenyamanan serta keamanan penggunaan.</t>
+  </si>
+  <si>
+    <t>Pasak kerangka menyusut / paku lepas</t>
+  </si>
+  <si>
+    <t>G02,G03, G08</t>
+  </si>
+  <si>
+    <t>G02, G07</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>Mengganti pasak, menambah lem, dan paku</t>
+  </si>
+  <si>
+    <t>Ganti kain</t>
+  </si>
+  <si>
+    <t>Ganti sarung jok</t>
+  </si>
+  <si>
+    <t>Penyesuaian dan pengencangan sarung jok</t>
+  </si>
+  <si>
+    <t>sarung jok kendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurang nyaman di duduki, </t>
+  </si>
+  <si>
+    <t>MB (tingkat kepastian dan tingkat kepercayaan)</t>
+  </si>
+  <si>
+    <t>MD (tingkat ketidakpastian dan tingkat ketidak percayaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,6 +2349,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2090,7 +2417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2114,7 +2441,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2135,6 +2465,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -2415,29 +2755,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L147" sqref="L147"/>
+    <sheetView topLeftCell="A141" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2468,12 +2808,12 @@
       <c r="J3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2484,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>745</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
@@ -2504,12 +2844,12 @@
       <c r="J4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2540,12 +2880,12 @@
       <c r="J5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2576,14 +2916,14 @@
       <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2614,12 +2954,12 @@
       <c r="J7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="74.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2650,12 +2990,12 @@
       <c r="J8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2686,12 +3026,12 @@
       <c r="J9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2722,12 +3062,12 @@
       <c r="J10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2758,12 +3098,12 @@
       <c r="J11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2794,12 +3134,12 @@
       <c r="J12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="57.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2830,12 +3170,12 @@
       <c r="J13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2866,12 +3206,12 @@
       <c r="J14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2902,12 +3242,12 @@
       <c r="J15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2935,15 +3275,15 @@
       <c r="I16" s="7">
         <v>1200000</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2974,12 +3314,12 @@
       <c r="J17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3010,12 +3350,12 @@
       <c r="J18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3046,12 +3386,12 @@
       <c r="J19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="K19" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3082,12 +3422,12 @@
       <c r="J20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="K20" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3118,12 +3458,12 @@
       <c r="J21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3131,22 +3471,22 @@
         <v>76</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I22" s="7">
         <v>540000</v>
@@ -3154,12 +3494,12 @@
       <c r="J22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="K22" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3190,12 +3530,12 @@
       <c r="J23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="K23" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3226,12 +3566,12 @@
       <c r="J24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="K24" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3262,12 +3602,12 @@
       <c r="J25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3298,12 +3638,12 @@
       <c r="J26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -3334,12 +3674,12 @@
       <c r="J27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="K27" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3370,12 +3710,12 @@
       <c r="J28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -3406,12 +3746,12 @@
       <c r="J29" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -3442,4111 +3782,4912 @@
       <c r="J30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="14">
         <v>230000</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="H32" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I32" s="14">
         <v>90000</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I33" s="13">
+      <c r="H33" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="14">
         <v>140000</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="C34" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I34" s="13">
+      <c r="H34" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I34" s="14">
         <v>165000</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="C35" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I35" s="13">
+      <c r="H35" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="14">
         <v>240000</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="H36" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" s="14">
         <v>95000</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="I37" s="13">
+      <c r="H37" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" s="14">
         <v>225000</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="H38" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I38" s="14">
         <v>95000</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I39" s="13">
+      <c r="H39" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I39" s="14">
         <v>90000</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K39" s="10" t="s">
+      <c r="J39" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="C40" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="H40" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I40" s="14">
         <v>160000</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="C41" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="H41" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I41" s="14">
         <v>65000</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K41" s="10" t="s">
+      <c r="J41" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="H42" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I42" s="14">
         <v>75000</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="C43" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="I43" s="13">
+      <c r="H43" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" s="14">
         <v>55000</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="H44" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" s="14">
         <v>65000</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K44" s="10" t="s">
+      <c r="J44" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="I45" s="13">
+      <c r="H45" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I45" s="14">
         <v>75000</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K45" s="10" t="s">
+      <c r="J45" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="C46" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="G46" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="I46" s="14">
         <v>450000</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="C47" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="I47" s="13">
+      <c r="H47" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I47" s="14">
         <v>950000</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="I48" s="13">
+      <c r="H48" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I48" s="14">
         <v>2400000</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="E49" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="I49" s="13">
+      <c r="H49" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I49" s="14">
         <v>1950000</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="C50" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I50" s="13">
+      <c r="H50" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I50" s="14">
         <v>1250000</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K50" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K50" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="C51" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I51" s="13">
+      <c r="H51" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I51" s="14">
         <v>1950000</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="C52" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="H52" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="I52" s="14">
         <v>550000</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F53" s="10" t="s">
+      <c r="C53" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="I53" s="13">
+      <c r="G53" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I53" s="14">
         <v>720000</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F54" s="10" t="s">
+      <c r="E54" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="I54" s="13">
+      <c r="H54" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="I54" s="14">
         <v>75000</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K54" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="C55" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="I55" s="13">
+      <c r="H55" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I55" s="14">
         <v>2650000</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K55" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="C56" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="I56" s="13">
+      <c r="H56" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="I56" s="14">
         <v>160000</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="C57" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="I57" s="13">
+      <c r="H57" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I57" s="14">
         <v>85000</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K57" s="10" t="s">
+      <c r="J57" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="C58" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="I58" s="13">
+      <c r="H58" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="I58" s="14">
         <v>90000</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K58" s="10" t="s">
+      <c r="J58" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="D59" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="I59" s="13">
+      <c r="H59" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I59" s="14">
         <v>150000</v>
       </c>
-      <c r="J59" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K59" s="10" t="s">
+      <c r="J59" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="C60" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="I60" s="13">
+      <c r="H60" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I60" s="14">
         <v>130000</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K60" s="10" t="s">
+      <c r="J60" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="C61" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="I61" s="13">
+      <c r="H61" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="I61" s="14">
         <v>240000</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="C62" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="14">
         <v>140000</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K62" s="10" t="s">
+      <c r="J62" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K62" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I63" s="13">
+      <c r="H63" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I63" s="14">
         <v>90000</v>
       </c>
-      <c r="J63" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K63" s="10" t="s">
+      <c r="J63" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K63" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F64" s="10" t="s">
+      <c r="C64" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="I64" s="13">
+      <c r="H64" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="I64" s="14">
         <v>900000</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="C65" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="I65" s="13">
+      <c r="H65" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I65" s="14">
         <v>1200000</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K65" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="K65" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="L65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="C66" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="I66" s="13">
+      <c r="H66" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="I66" s="14">
         <v>1500000</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F67" s="10" t="s">
+      <c r="C67" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="I67" s="13">
+      <c r="H67" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="I67" s="14">
         <v>550000</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K67" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K67" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F68" s="10" t="s">
+      <c r="C68" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="I68" s="13">
+      <c r="H68" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="I68" s="14">
         <v>400000</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K68" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K68" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="F69" s="10" t="s">
+      <c r="C69" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I69" s="13">
+      <c r="G69" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="I69" s="14">
         <v>1500000</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D70" s="10" t="s">
+      <c r="C70" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="E70" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="11">
         <v>1</v>
       </c>
-      <c r="H70" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="I70" s="13">
+      <c r="H70" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="I70" s="14">
         <v>100000</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="C71" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="I71" s="13">
+      <c r="H71" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="I71" s="14">
         <v>450000</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="C72" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="I72" s="13">
+      <c r="H72" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="I72" s="14">
         <v>2900000</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J72" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K72" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K72" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="F73" s="10" t="s">
+      <c r="C73" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="I73" s="13">
+      <c r="H73" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I73" s="14">
         <v>2600000</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="C74" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F74" s="10" t="s">
+      <c r="E74" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H74" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I74" s="13">
+      <c r="H74" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I74" s="14">
         <v>3100000</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K74" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K74" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="C75" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="F75" s="10" t="s">
+      <c r="E75" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H75" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="I75" s="13">
+      <c r="H75" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I75" s="14">
         <v>2250000</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K75" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K75" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F76" s="10" t="s">
+      <c r="C76" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="I76" s="13">
+      <c r="G76" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I76" s="14">
         <v>300000</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77" s="10" t="s">
+      <c r="C77" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="I77" s="13">
+      <c r="H77" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="I77" s="14">
         <v>150000</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D78" s="10" t="s">
+      <c r="C78" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="E78" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="I78" s="13">
+      <c r="H78" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I78" s="14">
         <v>2250000</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J78" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L78" s="11"/>
-    </row>
-    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="C79" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F79" s="10" t="s">
+      <c r="E79" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="11">
         <v>1</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="I79" s="13">
+      <c r="H79" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="I79" s="14">
         <v>75000</v>
       </c>
-      <c r="J79" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K79" s="10" t="s">
+      <c r="J79" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D80" s="10" t="s">
+      <c r="C80" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F80" s="10" t="s">
+      <c r="E80" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="11">
         <v>1</v>
       </c>
-      <c r="H80" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="I80" s="13">
+      <c r="H80" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="I80" s="14">
         <v>90000</v>
       </c>
-      <c r="J80" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K80" s="10" t="s">
+      <c r="J80" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F81" s="10" t="s">
+      <c r="C81" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="11">
         <v>1</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="I81" s="13">
+      <c r="H81" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" s="14">
         <v>120000</v>
       </c>
-      <c r="J81" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="K81" s="10" t="s">
+      <c r="J81" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="K81" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="D82" s="10" t="s">
+      <c r="C82" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="E82" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="11">
         <v>1</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="I82" s="13">
+      <c r="H82" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="I82" s="14">
         <v>75000</v>
       </c>
-      <c r="J82" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K82" s="10" t="s">
+      <c r="J82" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="K82" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L82" s="11"/>
-    </row>
-    <row r="83" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F83" s="10" t="s">
+      <c r="C83" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="11">
         <v>1</v>
       </c>
-      <c r="H83" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="I83" s="13">
+      <c r="H83" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="I83" s="14">
         <v>55000</v>
       </c>
-      <c r="J83" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K83" s="10" t="s">
+      <c r="J83" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="K83" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L83" s="11"/>
-    </row>
-    <row r="84" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="C84" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="11">
         <v>1</v>
       </c>
-      <c r="H84" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I84" s="13">
+      <c r="H84" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="I84" s="14">
         <v>40000</v>
       </c>
-      <c r="J84" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K84" s="10" t="s">
+      <c r="J84" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L84" s="11"/>
-    </row>
-    <row r="85" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F85" s="10" t="s">
+      <c r="D85" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="11">
         <v>1</v>
       </c>
-      <c r="H85" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="I85" s="13">
+      <c r="H85" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="I85" s="14">
         <v>40000</v>
       </c>
-      <c r="J85" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K85" s="10" t="s">
+      <c r="J85" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L85" s="11"/>
-    </row>
-    <row r="86" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L85" s="12"/>
+    </row>
+    <row r="86" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D86" s="10" t="s">
+      <c r="C86" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="E86" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="11">
         <v>2</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="I86" s="13">
+      <c r="H86" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="I86" s="14">
         <v>500000</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L86" s="11"/>
-    </row>
-    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F87" s="10" t="s">
+      <c r="C87" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="11">
         <v>1</v>
       </c>
-      <c r="H87" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="I87" s="13">
+      <c r="H87" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="I87" s="14">
         <v>150000</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="11"/>
-    </row>
-    <row r="88" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="K87" s="11"/>
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="F88" s="10" t="s">
+      <c r="C88" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="11">
         <v>1</v>
       </c>
-      <c r="H88" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="I88" s="13">
+      <c r="H88" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="I88" s="14">
         <v>100000</v>
       </c>
-      <c r="J88" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="K88" s="10" t="s">
+      <c r="J88" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K88" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L88" s="11"/>
-    </row>
-    <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F89" s="10" t="s">
+      <c r="C89" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="I89" s="13">
+      <c r="G89" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I89" s="14">
         <v>1200000</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K89" s="10"/>
-      <c r="L89" s="11"/>
-    </row>
-    <row r="90" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K89" s="11"/>
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="D90" s="10" t="s">
+      <c r="C90" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="F90" s="10" t="s">
+      <c r="E90" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H90" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I90" s="13">
+      <c r="H90" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="I90" s="14">
         <v>850000</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L90" s="11"/>
-    </row>
-    <row r="91" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="C91" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F91" s="10" t="s">
+      <c r="E91" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F91" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="I91" s="13">
+      <c r="H91" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="I91" s="14">
         <v>1200000</v>
       </c>
-      <c r="J91" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L91" s="11"/>
-    </row>
-    <row r="92" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J91" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L91" s="12"/>
+    </row>
+    <row r="92" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F92" s="10" t="s">
+      <c r="C92" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F92" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H92" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="I92" s="13">
+      <c r="H92" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I92" s="14">
         <v>450000</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L92" s="11"/>
-    </row>
-    <row r="93" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="F93" s="10" t="s">
+      <c r="C93" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H93" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="I93" s="13">
+      <c r="H93" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I93" s="14">
         <v>450000</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L93" s="11"/>
-    </row>
-    <row r="94" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L93" s="12"/>
+    </row>
+    <row r="94" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="F94" s="10" t="s">
+      <c r="C94" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F94" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H94" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="I94" s="13">
+      <c r="H94" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I94" s="14">
         <v>450000</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L94" s="11"/>
-    </row>
-    <row r="95" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L94" s="12"/>
+    </row>
+    <row r="95" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F95" s="10" t="s">
+      <c r="C95" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F95" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H95" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="I95" s="13">
+      <c r="H95" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I95" s="14">
         <v>400000</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="K95" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L95" s="11"/>
-    </row>
-    <row r="96" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F96" s="10" t="s">
+      <c r="C96" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F96" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H96" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="I96" s="13">
+      <c r="H96" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I96" s="14">
         <v>650000</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K96" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="L96" s="11"/>
-    </row>
-    <row r="97" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K96" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="L96" s="12"/>
+    </row>
+    <row r="97" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F97" s="10" t="s">
+      <c r="C97" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H97" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="I97" s="13">
+      <c r="H97" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I97" s="14">
         <v>550000</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K97" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="L97" s="11"/>
-    </row>
-    <row r="98" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K97" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="L97" s="12"/>
+    </row>
+    <row r="98" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F98" s="10" t="s">
+      <c r="C98" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F98" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="I98" s="14">
+        <v>2700000</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="I98" s="13">
-        <v>2700000</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K98" s="10" t="s">
+      <c r="K98" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L98" s="11"/>
-    </row>
-    <row r="99" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L98" s="12"/>
+    </row>
+    <row r="99" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="F99" s="10" t="s">
+      <c r="C99" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F99" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H99" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="I99" s="13">
+      <c r="H99" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="I99" s="14">
         <v>2200000</v>
       </c>
-      <c r="J99" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L99" s="11"/>
-    </row>
-    <row r="100" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J99" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L99" s="12"/>
+    </row>
+    <row r="100" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="C100" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="F100" s="10" t="s">
+      <c r="E100" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F100" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H100" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="I100" s="13">
+      <c r="H100" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="I100" s="14">
         <v>3400000</v>
       </c>
-      <c r="J100" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L100" s="11"/>
-    </row>
-    <row r="101" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="J100" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L100" s="12"/>
+    </row>
+    <row r="101" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="F101" s="10" t="s">
+      <c r="C101" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H101" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="I101" s="13">
+      <c r="H101" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="I101" s="14">
         <v>1500000</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L101" s="11"/>
-    </row>
-    <row r="102" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L101" s="12"/>
+    </row>
+    <row r="102" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="C102" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="F102" s="10" t="s">
+      <c r="E102" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F102" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I102" s="13">
+      <c r="H102" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I102" s="14">
         <v>90000</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K102" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L102" s="11"/>
-    </row>
-    <row r="103" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K102" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L102" s="12"/>
+    </row>
+    <row r="103" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="C103" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="F103" s="10" t="s">
+      <c r="E103" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F103" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H103" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="I103" s="13">
+      <c r="H103" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I103" s="14">
         <v>75000</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L103" s="11"/>
-    </row>
-    <row r="104" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L103" s="12"/>
+    </row>
+    <row r="104" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D104" s="10" t="s">
+      <c r="C104" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="F104" s="10" t="s">
+      <c r="E104" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F104" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I104" s="13">
+      <c r="H104" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I104" s="14">
         <v>90000</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="J104" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="K104" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L104" s="11"/>
-    </row>
-    <row r="105" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L104" s="12"/>
+    </row>
+    <row r="105" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D105" s="10" t="s">
+      <c r="C105" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="F105" s="10" t="s">
+      <c r="E105" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="F105" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H105" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I105" s="13">
+      <c r="H105" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I105" s="14">
         <v>90000</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="J105" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K105" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L105" s="11"/>
-    </row>
-    <row r="106" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K105" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L105" s="12"/>
+    </row>
+    <row r="106" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D106" s="10" t="s">
+      <c r="C106" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="F106" s="10" t="s">
+      <c r="E106" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F106" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H106" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I106" s="13">
+      <c r="H106" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I106" s="14">
         <v>140000</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J106" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K106" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L106" s="11"/>
-    </row>
-    <row r="107" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K106" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="D107" s="10" t="s">
+      <c r="C107" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="F107" s="10" t="s">
+      <c r="E107" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H107" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="I107" s="13">
+      <c r="H107" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I107" s="14">
         <v>75000</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K107" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L107" s="11"/>
-    </row>
-    <row r="108" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K107" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="D108" s="10" t="s">
+      <c r="C108" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="F108" s="10" t="s">
+      <c r="E108" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F108" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H108" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I108" s="13">
+      <c r="H108" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I108" s="14">
         <v>90000</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K108" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L108" s="11"/>
-    </row>
-    <row r="109" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K108" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="D109" s="10" t="s">
+      <c r="C109" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="F109" s="10" t="s">
+      <c r="E109" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H109" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I109" s="13">
+      <c r="H109" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I109" s="14">
         <v>90000</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K109" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L109" s="11"/>
-    </row>
-    <row r="110" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K109" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="F110" s="10" t="s">
+      <c r="C110" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H110" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="I110" s="13">
+      <c r="H110" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="I110" s="14">
         <v>160000</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K110" s="10" t="s">
+      <c r="K110" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L110" s="11"/>
-    </row>
-    <row r="111" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="F111" s="10" t="s">
+      <c r="C111" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F111" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H111" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="I111" s="13">
+      <c r="H111" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I111" s="14">
         <v>2700000</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K111" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L111" s="11"/>
-    </row>
-    <row r="112" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="J111" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L111" s="12"/>
+    </row>
+    <row r="112" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="F112" s="10" t="s">
+      <c r="C112" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F112" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G112" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="I112" s="13">
+      <c r="G112" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="I112" s="14">
         <v>550000</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J112" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K112" s="10" t="s">
+      <c r="K112" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L112" s="11"/>
-    </row>
-    <row r="113" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L112" s="12"/>
+    </row>
+    <row r="113" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="F113" s="10" t="s">
+      <c r="C113" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="I113" s="13">
+      <c r="G113" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="I113" s="14">
         <v>1900000</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K113" s="10" t="s">
+      <c r="K113" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L113" s="11"/>
-    </row>
-    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L113" s="12"/>
+    </row>
+    <row r="114" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="D114" s="10" t="s">
+      <c r="C114" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="F114" s="10" t="s">
+      <c r="E114" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G114" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H114" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="I114" s="13">
+      <c r="H114" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="I114" s="14">
         <v>550000</v>
       </c>
-      <c r="J114" s="10" t="s">
+      <c r="J114" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K114" s="10" t="s">
+      <c r="K114" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L114" s="11"/>
-    </row>
-    <row r="115" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L114" s="12"/>
+    </row>
+    <row r="115" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="F115" s="10" t="s">
+      <c r="C115" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="F115" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H115" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="I115" s="13">
+      <c r="H115" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="I115" s="14">
         <v>2000000</v>
       </c>
-      <c r="J115" s="10" t="s">
+      <c r="J115" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K115" s="10" t="s">
+      <c r="K115" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L115" s="11"/>
-    </row>
-    <row r="116" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="L115" s="12"/>
+    </row>
+    <row r="116" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F116" s="10" t="s">
+      <c r="C116" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F116" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G116" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H116" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="I116" s="13">
+      <c r="H116" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="I116" s="14">
         <v>2800000</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L116" s="11"/>
-    </row>
-    <row r="117" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L116" s="12"/>
+    </row>
+    <row r="117" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="F117" s="10" t="s">
+      <c r="C117" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H117" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="I117" s="13">
+      <c r="H117" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="I117" s="14">
         <v>950000</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J117" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K117" s="10" t="s">
+      <c r="K117" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L117" s="11"/>
-    </row>
-    <row r="118" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L117" s="12"/>
+    </row>
+    <row r="118" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>115</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="C118" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F118" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H118" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="I118" s="13">
+      <c r="H118" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="I118" s="14">
         <v>3400000</v>
       </c>
-      <c r="J118" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K118" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L118" s="11"/>
-    </row>
-    <row r="119" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J118" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L118" s="12"/>
+    </row>
+    <row r="119" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="D119" s="10" t="s">
+      <c r="C119" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="F119" s="10" t="s">
+      <c r="E119" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F119" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H119" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="I119" s="13">
+      <c r="H119" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I119" s="14">
         <v>3600000</v>
       </c>
-      <c r="J119" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K119" s="10" t="s">
+      <c r="J119" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K119" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L119" s="11"/>
-    </row>
-    <row r="120" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L119" s="12"/>
+    </row>
+    <row r="120" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="F120" s="10" t="s">
+      <c r="C120" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F120" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G120" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H120" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="I120" s="13">
+      <c r="H120" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I120" s="14">
         <v>2200000</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J120" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K120" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L120" s="11"/>
-    </row>
-    <row r="121" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K120" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L120" s="12"/>
+    </row>
+    <row r="121" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D121" s="10" t="s">
+      <c r="C121" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F121" s="10" t="s">
+      <c r="E121" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F121" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H121" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="I121" s="13">
+      <c r="H121" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="I121" s="14">
         <v>150000</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J121" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K121" s="10" t="s">
+      <c r="K121" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L121" s="11"/>
-    </row>
-    <row r="122" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L121" s="12"/>
+    </row>
+    <row r="122" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="C122" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E122" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="F122" s="10" t="s">
+      <c r="E122" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G122" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H122" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="I122" s="13">
+      <c r="H122" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="I122" s="14">
         <v>250000</v>
       </c>
-      <c r="J122" s="10" t="s">
+      <c r="J122" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K122" s="10" t="s">
+      <c r="K122" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L122" s="11"/>
-    </row>
-    <row r="123" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="L122" s="12"/>
+    </row>
+    <row r="123" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="C123" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F123" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="G123" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H123" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="I123" s="13">
+      <c r="H123" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="I123" s="14">
         <v>2250000</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J123" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K123" s="10" t="s">
+      <c r="K123" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L123" s="11"/>
-    </row>
-    <row r="124" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L123" s="12"/>
+    </row>
+    <row r="124" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>121</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F124" s="10" t="s">
+      <c r="C124" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F124" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G124" s="10" t="s">
+      <c r="G124" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H124" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="I124" s="13">
+      <c r="H124" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="I124" s="14">
         <v>450000</v>
       </c>
-      <c r="J124" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="K124" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="L124" s="11"/>
-    </row>
-    <row r="125" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="L124" s="12"/>
+    </row>
+    <row r="125" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="F125" s="10" t="s">
+      <c r="C125" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F125" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G125" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H125" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="I125" s="13">
+      <c r="H125" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="I125" s="14">
         <v>150000</v>
       </c>
-      <c r="J125" s="10" t="s">
+      <c r="J125" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K125" s="10" t="s">
+      <c r="K125" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L125" s="11"/>
-    </row>
-    <row r="126" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L125" s="12"/>
+    </row>
+    <row r="126" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="C126" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="F126" s="10" t="s">
+      <c r="E126" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F126" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G126" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H126" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="I126" s="13">
+      <c r="H126" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="I126" s="14">
         <v>165000</v>
       </c>
-      <c r="J126" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="K126" s="10" t="s">
+      <c r="J126" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K126" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L126" s="11"/>
-    </row>
-    <row r="127" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L126" s="12"/>
+    </row>
+    <row r="127" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="F127" s="10" t="s">
+      <c r="C127" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F127" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G127" s="10" t="s">
+      <c r="G127" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H127" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="I127" s="13">
+      <c r="H127" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="I127" s="14">
         <v>220000</v>
       </c>
-      <c r="J127" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="K127" s="10" t="s">
+      <c r="J127" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K127" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L127" s="11"/>
-    </row>
-    <row r="128" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L127" s="12"/>
+    </row>
+    <row r="128" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="D128" s="10" t="s">
+      <c r="C128" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E128" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="F128" s="10" t="s">
+      <c r="E128" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F128" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="G128" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H128" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="I128" s="13">
+      <c r="H128" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="I128" s="14">
         <v>65000</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K128" s="10" t="s">
+      <c r="K128" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L128" s="11"/>
-    </row>
-    <row r="129" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L128" s="12"/>
+    </row>
+    <row r="129" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="D129" s="10" t="s">
+      <c r="C129" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="D129" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="F129" s="10" t="s">
+      <c r="E129" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F129" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H129" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="I129" s="13">
+      <c r="H129" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="I129" s="14">
         <v>365000</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K129" s="10" t="s">
+      <c r="K129" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L129" s="11"/>
-    </row>
-    <row r="130" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L129" s="12"/>
+    </row>
+    <row r="130" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="C130" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="F130" s="10" t="s">
+      <c r="E130" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F130" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H130" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="I130" s="13">
+      <c r="H130" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="I130" s="14">
         <v>280000</v>
       </c>
-      <c r="J130" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="K130" s="10" t="s">
+      <c r="J130" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L130" s="11"/>
-    </row>
-    <row r="131" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L130" s="12"/>
+    </row>
+    <row r="131" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="D131" s="10" t="s">
+      <c r="C131" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="F131" s="10" t="s">
+      <c r="E131" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="F131" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H131" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="I131" s="13">
+      <c r="H131" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="I131" s="14">
         <v>90000</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K131" s="10" t="s">
+      <c r="K131" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L131" s="11"/>
-    </row>
-    <row r="132" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L131" s="12"/>
+    </row>
+    <row r="132" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="F132" s="10" t="s">
+      <c r="C132" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F132" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G132" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="I132" s="13">
+      <c r="G132" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="I132" s="14">
         <v>450000</v>
       </c>
-      <c r="J132" s="10" t="s">
+      <c r="J132" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K132" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L132" s="11"/>
-    </row>
-    <row r="133" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K132" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L132" s="12"/>
+    </row>
+    <row r="133" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="D133" s="10" t="s">
+      <c r="C133" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="F133" s="10" t="s">
+      <c r="E133" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="F133" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G133" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="I133" s="13">
+      <c r="G133" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="I133" s="14">
         <v>950000</v>
       </c>
-      <c r="J133" s="10" t="s">
+      <c r="J133" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K133" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L133" s="11"/>
-    </row>
-    <row r="134" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K133" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L133" s="12"/>
+    </row>
+    <row r="134" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D134" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="F134" s="10" t="s">
+      <c r="D134" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="F134" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G134" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H134" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="I134" s="13">
+      <c r="H134" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="I134" s="14">
         <v>300000</v>
       </c>
-      <c r="J134" s="10" t="s">
+      <c r="J134" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K134" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L134" s="11"/>
-    </row>
-    <row r="135" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K134" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L134" s="12"/>
+    </row>
+    <row r="135" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="F135" s="10" t="s">
+      <c r="C135" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F135" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G135" s="10" t="s">
+      <c r="G135" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H135" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="I135" s="13">
+      <c r="H135" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="I135" s="14">
         <v>2100000</v>
       </c>
-      <c r="J135" s="10" t="s">
+      <c r="J135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K135" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="L135" s="11"/>
-    </row>
-    <row r="136" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K135" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L135" s="12"/>
+    </row>
+    <row r="136" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C136" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="F136" s="10" t="s">
+      <c r="C136" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F136" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H136" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="I136" s="13">
+      <c r="H136" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="I136" s="14">
         <v>3400000</v>
       </c>
-      <c r="J136" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K136" s="10" t="s">
+      <c r="J136" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K136" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L136" s="11"/>
-    </row>
-    <row r="137" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L136" s="12"/>
+    </row>
+    <row r="137" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="F137" s="10" t="s">
+      <c r="C137" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G137" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="I137" s="13">
+      <c r="G137" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="I137" s="14">
         <v>3125000</v>
       </c>
-      <c r="J137" s="10" t="s">
+      <c r="J137" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K137" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="L137" s="11"/>
-    </row>
-    <row r="138" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K137" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="L137" s="12"/>
+    </row>
+    <row r="138" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="F138" s="10" t="s">
+      <c r="C138" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="F138" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G138" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="I138" s="13">
+      <c r="G138" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="I138" s="14">
         <v>450000</v>
       </c>
-      <c r="J138" s="10" t="s">
+      <c r="J138" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K138" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="L138" s="11"/>
-    </row>
-    <row r="139" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K138" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="L138" s="12"/>
+    </row>
+    <row r="139" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="F139" s="10" t="s">
+      <c r="C139" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F139" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G139" s="10" t="s">
+      <c r="G139" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H139" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="I139" s="13">
+      <c r="H139" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="I139" s="14">
         <v>300000</v>
       </c>
-      <c r="J139" s="10" t="s">
+      <c r="J139" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K139" s="10" t="s">
+      <c r="K139" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L139" s="11"/>
-    </row>
-    <row r="140" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L139" s="12"/>
+    </row>
+    <row r="140" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>137</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="F140" s="10" t="s">
+      <c r="C140" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="F140" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G140" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H140" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="I140" s="13">
+      <c r="H140" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="I140" s="14">
         <v>950000</v>
       </c>
-      <c r="J140" s="10" t="s">
+      <c r="J140" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K140" s="10" t="s">
+      <c r="K140" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L140" s="11"/>
-    </row>
-    <row r="141" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="L140" s="12"/>
+    </row>
+    <row r="141" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="F141" s="10" t="s">
+      <c r="C141" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F141" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G141" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="I141" s="13">
+      <c r="G141" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="I141" s="14">
         <v>900000</v>
       </c>
-      <c r="J141" s="10" t="s">
+      <c r="J141" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K141" s="10" t="s">
+      <c r="K141" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L141" s="11"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="11"/>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="11"/>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="11"/>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="11"/>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="11"/>
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="11"/>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="11"/>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="11"/>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="11"/>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="11"/>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L141" s="12"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="4">
+        <v>139</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="12"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="4">
+        <v>140</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="12"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="4">
+        <v>141</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="12"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="4">
+        <v>142</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="12"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="4">
+        <v>143</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="12"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>144</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="12"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" s="4">
+        <v>145</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="12"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>146</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="12"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" s="4">
+        <v>147</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="12"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>148</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="12"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" s="4">
+        <v>149</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="12"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" s="4">
+        <v>150</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="12"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="4">
+        <v>151</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="12"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" s="4">
+        <v>152</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" s="4">
+        <v>153</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="I156" s="8"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I158" s="8"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I159" s="8"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I160" s="8"/>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I162" s="8"/>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I163" s="8"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I164" s="8"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I167" s="8"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I168" s="8"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I169" s="8"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I170" s="8"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I171" s="8"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I172" s="8"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I173" s="8"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I174" s="8"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I175" s="8"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I176" s="8"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I178" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="85.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>